--- a/input/Financial Statement AAPL/Stock Price.xlsx
+++ b/input/Financial Statement AAPL/Stock Price.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC2"/>
+  <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,16 +569,6 @@
           <t>Year Ended 2021</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>Q2 2022</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>Q3 2022</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -614,10 +604,10 @@
         <v>45.54249954223633</v>
       </c>
       <c r="K2" t="n">
-        <v>55.1974983215332</v>
+        <v>55.54750061035156</v>
       </c>
       <c r="L2" t="n">
-        <v>55.1974983215332</v>
+        <v>55.54750061035156</v>
       </c>
       <c r="M2" t="n">
         <v>72.47750091552734</v>
@@ -626,13 +616,13 @@
         <v>47.18500137329102</v>
       </c>
       <c r="O2" t="n">
-        <v>49.64500045776367</v>
+        <v>48.89250183105469</v>
       </c>
       <c r="P2" t="n">
-        <v>54.41999816894531</v>
+        <v>55.25749969482422</v>
       </c>
       <c r="Q2" t="n">
-        <v>54.41999816894531</v>
+        <v>55.25749969482422</v>
       </c>
       <c r="R2" t="n">
         <v>136.6900024414062</v>
@@ -641,13 +631,13 @@
         <v>61.38000106811523</v>
       </c>
       <c r="T2" t="n">
-        <v>90.01499938964844</v>
+        <v>91.20999908447266</v>
       </c>
       <c r="U2" t="n">
-        <v>108.2200012207031</v>
+        <v>112.2799987792969</v>
       </c>
       <c r="V2" t="n">
-        <v>108.2200012207031</v>
+        <v>112.2799987792969</v>
       </c>
       <c r="W2" t="n">
         <v>180.3300018310547</v>
@@ -656,19 +646,13 @@
         <v>120.5899963378906</v>
       </c>
       <c r="Y2" t="n">
-        <v>133.4100036621094</v>
+        <v>133.1100006103516</v>
       </c>
       <c r="Z2" t="n">
-        <v>146.9199981689453</v>
+        <v>145.3699951171875</v>
       </c>
       <c r="AA2" t="n">
-        <v>146.9199981689453</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>174.7200012207031</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>141.6600036621094</v>
+        <v>145.3699951171875</v>
       </c>
     </row>
   </sheetData>
